--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -272,7 +272,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+         and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Event</t>
@@ -424,7 +426,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -594,6 +596,9 @@
     <t>Treatment reason</t>
   </si>
   <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -938,7 +943,7 @@
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
 </t>
   </si>
   <si>
@@ -1269,23 +1274,19 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>Number of packages</t>
+  </si>
+  <si>
+    <t>The amount of medication that has been dispensed. Includes unit of measure.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.SupplyEvent.quantity</t>
+  </si>
+  <si>
+    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
   </si>
   <si>
     <t>MedicationDispense.daysSupply</t>
@@ -1295,6 +1296,15 @@
 </t>
   </si>
   <si>
+    <t>effectiveUseTime</t>
+  </si>
+  <si>
+    <t>TQ1.6 Timing/Quantity Segment Service Duration.+Prior to v2.5, ORC.7.3 Common Order Segment / Quantity/Timing / Duration component.  This is a formatted string, first character for the time unit (e.g., D=days), followed by the value.  For example, “D14” represents “14 days supply”+From v2.5 on, TQ1.6 Timing/Quantity Segment / Service Duration.  This is a CQ data type (&lt;Quantity (NM)&gt; ^ &lt;Units (CWE)&gt;), thus for days supply, assuming the unit of measure is “days”, the numeric value is TQ1.6.1 (…|14^+For backwards compatibility, ORC.7 was permitted through v2.6.  Both forms (field and segment) may be present in v2.5, v2.5.1, and v2.6</t>
+  </si>
+  <si>
     <t>MedicationDispense.whenPrepared</t>
   </si>
   <si>
@@ -1429,14 +1439,14 @@
     <t>MedicationDispense.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is to be used by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1460,10 +1470,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationStatement / MedicationDispense)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1480,7 +1487,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
   <si>
     <t>MedicationDispense.substitution</t>
@@ -1493,7 +1500,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-emed-dis-1:If no substitution was performed, no type is expected. {wasSubstituted = true or (wasSubstituted = false and type.exists().not())}</t>
+ch-meddis-1:If no substitution was performed, no type is expected. {wasSubstituted = true or (wasSubstituted = false and type.exists().not())}ch-emed-dis-1:If no substitution was performed, no type is expected. {wasSubstituted = true or (wasSubstituted = false and type.exists().not())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SUBST, moodCode=EVN]</t>
@@ -1536,13 +1543,74 @@
     <t>A code signifying whether a different drug was dispensed from what was prescribed.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/ActSubstanceAdminSubstitutionCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ActSubstanceAdminSubstitutionCode</t>
   </si>
   <si>
     <t>CombinedMedicationDispense.substitutionMade.code</t>
   </si>
   <si>
     <t>RXO-9-Allow Substitutions / RXE-9-Substitution Status</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="E"/&gt;
+  &lt;display value="equivalent"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationDispense.substitution.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationDispense.substitution.reason</t>
@@ -1907,7 +1975,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO86"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,46 +1984,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.89453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.4765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="162.11328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="126.52734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.5546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.41796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="130.8515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.92578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3961,7 +4029,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3979,7 +4047,7 @@
         <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4039,7 +4107,7 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>116</v>
@@ -4048,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4062,13 +4130,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
@@ -4090,10 +4158,10 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>179</v>
@@ -4156,7 +4224,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>116</v>
@@ -4179,13 +4247,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4207,7 +4275,7 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>110</v>
@@ -4273,7 +4341,7 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -4296,13 +4364,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>79</v>
@@ -4324,10 +4392,10 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>179</v>
@@ -4390,7 +4458,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>116</v>
@@ -4413,10 +4481,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4448,7 +4516,7 @@
         <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4498,7 +4566,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4530,10 +4598,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4556,16 +4624,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4615,7 +4683,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4630,16 +4698,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4647,10 +4715,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4762,14 +4830,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4791,13 +4859,13 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4879,10 +4947,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4908,16 +4976,16 @@
         <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4942,13 +5010,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4966,7 +5034,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4984,7 +5052,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4998,10 +5066,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5024,19 +5092,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5064,10 +5132,10 @@
         <v>137</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5085,7 +5153,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5103,7 +5171,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5112,15 +5180,15 @@
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5146,29 +5214,29 @@
         <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5204,7 +5272,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5222,7 +5290,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5231,15 +5299,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5265,13 +5333,13 @@
         <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5285,7 +5353,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5321,7 +5389,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5339,7 +5407,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5348,15 +5416,15 @@
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5379,13 +5447,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5436,7 +5504,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5454,7 +5522,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5463,15 +5531,15 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5494,16 +5562,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5553,7 +5621,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5571,7 +5639,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5580,15 +5648,15 @@
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5611,7 +5679,7 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>110</v>
@@ -5668,7 +5736,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5683,10 +5751,10 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5700,10 +5768,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5729,13 +5797,13 @@
         <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5743,7 +5811,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -5761,13 +5829,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5785,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
@@ -5800,16 +5868,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5817,10 +5885,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5843,10 +5911,10 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>111</v>
@@ -5879,10 +5947,10 @@
         <v>143</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5900,7 +5968,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5915,10 +5983,10 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5932,10 +6000,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5958,7 +6026,7 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>110</v>
@@ -5967,7 +6035,7 @@
         <v>111</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5996,10 +6064,10 @@
         <v>157</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6017,7 +6085,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6035,7 +6103,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6049,10 +6117,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6075,16 +6143,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6122,17 +6190,17 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
@@ -6147,30 +6215,30 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>79</v>
@@ -6192,16 +6260,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6251,7 +6319,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>89</v>
@@ -6266,27 +6334,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6309,16 +6377,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6368,7 +6436,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6383,27 +6451,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6515,14 +6583,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6544,13 +6612,13 @@
         <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6632,10 +6700,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6661,13 +6729,13 @@
         <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6717,7 +6785,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6726,7 +6794,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6749,10 +6817,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6778,13 +6846,13 @@
         <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6813,10 +6881,10 @@
         <v>137</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6834,7 +6902,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6866,10 +6934,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6892,16 +6960,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6951,7 +7019,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6969,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6983,10 +7051,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7012,13 +7080,13 @@
         <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7068,7 +7136,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7100,10 +7168,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7126,7 +7194,7 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>110</v>
@@ -7183,7 +7251,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7198,10 +7266,10 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7215,10 +7283,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7241,7 +7309,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>110</v>
@@ -7298,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7316,10 +7384,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7330,10 +7398,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7356,13 +7424,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7413,7 +7481,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7428,10 +7496,10 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7445,10 +7513,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7560,14 +7628,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7589,13 +7657,13 @@
         <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7677,10 +7745,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7712,7 +7780,7 @@
         <v>179</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7762,7 +7830,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7794,10 +7862,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7820,17 +7888,17 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7858,10 +7926,10 @@
         <v>143</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7879,7 +7947,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7897,7 +7965,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7911,10 +7979,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7937,13 +8005,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7994,7 +8062,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>89</v>
@@ -8009,10 +8077,10 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8026,10 +8094,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8141,14 +8209,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8170,13 +8238,13 @@
         <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8258,10 +8326,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8287,13 +8355,13 @@
         <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8343,7 +8411,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8352,7 +8420,7 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>101</v>
@@ -8375,10 +8443,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8404,13 +8472,13 @@
         <v>125</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8439,10 +8507,10 @@
         <v>137</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8460,7 +8528,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8492,10 +8560,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8518,16 +8586,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8577,7 +8645,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8595,7 +8663,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8609,10 +8677,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8638,13 +8706,13 @@
         <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8694,7 +8762,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8726,10 +8794,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8752,7 +8820,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>110</v>
@@ -8809,7 +8877,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8827,7 +8895,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8841,10 +8909,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8867,7 +8935,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>110</v>
@@ -8876,7 +8944,7 @@
         <v>111</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8926,7 +8994,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8941,27 +9009,27 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8984,7 +9052,7 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>110</v>
@@ -9020,28 +9088,28 @@
         <v>143</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9059,24 +9127,24 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9099,17 +9167,15 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N62" t="s" s="2">
         <v>403</v>
       </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9158,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9167,22 +9233,22 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>406</v>
@@ -9224,9 +9290,7 @@
       <c r="M63" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9284,16 +9348,16 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>404</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9302,15 +9366,15 @@
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9333,7 +9397,7 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>110</v>
@@ -9390,7 +9454,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9408,24 +9472,24 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9448,13 +9512,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9505,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9520,27 +9584,27 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9563,7 +9627,7 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>110</v>
@@ -9620,7 +9684,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9638,24 +9702,24 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9678,7 +9742,7 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>110</v>
@@ -9735,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9753,13 +9817,13 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -9767,10 +9831,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9793,13 +9857,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9850,7 +9914,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9865,10 +9929,10 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9877,15 +9941,15 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9997,10 +10061,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10112,10 +10176,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10138,16 +10202,16 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>111</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10197,7 +10261,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10215,7 +10279,7 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10229,10 +10293,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10255,7 +10319,7 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>110</v>
@@ -10312,7 +10376,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10330,7 +10394,7 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10344,10 +10408,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10370,13 +10434,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10427,7 +10491,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>89</v>
@@ -10445,7 +10509,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10459,10 +10523,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10485,16 +10549,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10532,17 +10596,17 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10560,7 +10624,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10574,13 +10638,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>79</v>
@@ -10602,16 +10666,16 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10661,7 +10725,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10673,13 +10737,13 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10693,13 +10757,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>79</v>
@@ -10721,16 +10785,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10780,7 +10844,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10798,7 +10862,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -10812,10 +10876,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10838,13 +10902,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10895,7 +10959,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -10907,19 +10971,19 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -10927,10 +10991,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11042,14 +11106,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11071,13 +11135,13 @@
         <v>109</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11159,10 +11223,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11194,7 +11258,7 @@
         <v>179</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11244,7 +11308,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11276,10 +11340,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11302,13 +11366,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11359,7 +11423,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>89</v>
@@ -11377,7 +11441,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11391,10 +11455,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11417,13 +11481,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11450,11 +11514,11 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -11472,7 +11536,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11490,24 +11554,24 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11518,7 +11582,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11530,13 +11594,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11563,13 +11627,13 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11587,31 +11651,31 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>488</v>
+        <v>106</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>491</v>
+        <v>107</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11619,14 +11683,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11645,15 +11709,17 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>494</v>
+        <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -11690,19 +11756,19 @@
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>493</v>
+        <v>115</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11714,19 +11780,19 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>495</v>
+        <v>107</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -11734,14 +11800,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11757,21 +11823,23 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>499</v>
+        <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>110</v>
+        <v>492</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>111</v>
+        <v>493</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11780,7 +11848,7 @@
         <v>79</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>79</v>
@@ -11837,7 +11905,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -11846,15 +11914,15 @@
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11865,7 +11933,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -11874,21 +11942,23 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
@@ -11936,13 +12006,13 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
@@ -11954,7 +12024,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -11963,6 +12033,470 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,8 +272,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
          and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>MedicationDispense.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -451,7 +451,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -469,7 +469,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -513,7 +513,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -642,431 +642,274 @@
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
     <t>MedicationDispense.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense Identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.status</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the set of dispense events.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A coded concept specifying the state of the dispense event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
+  </si>
+  <si>
+    <t>MedicationDispense.statusReason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(DetectedIssue|4.0.1)</t>
+  </si>
+  <si>
+    <t>✕ This is only meaningful when the dispense was not performed</t>
+  </si>
+  <si>
+    <t>A code describing why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
+  </si>
+  <si>
+    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
+</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRD].role</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>CombinedMedicationRequest.component1.AdministrationRequest.consumable</t>
+  </si>
+  <si>
+    <t>RXD-2-Dispense/Give Code</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication[x]:medicationReference</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Reference to the contained medication</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient) &lt;&lt;referenced, bundled&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration-&gt;subject-&gt;Patient.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>MedicationDispense Identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Procedure)
-</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.status</t>
-  </si>
-  <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the set of dispense events.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the dispense event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
-  </si>
-  <si>
-    <t>MedicationDispense.statusReason[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(DetectedIssue)</t>
-  </si>
-  <si>
-    <t>✕ This is only meaningful when the dispense was not performed</t>
-  </si>
-  <si>
-    <t>A code describing why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
-  </si>
-  <si>
-    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
-</t>
-  </si>
-  <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRD].role</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>CombinedMedicationRequest.component1.AdministrationRequest.consumable</t>
-  </si>
-  <si>
-    <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Reference to the contained medication</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient) &lt;&lt;referenced, bundled&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration-&gt;subject-&gt;Patient.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1105,7 +948,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1118,7 +961,7 @@
     <t>MedicationDispense.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1174,7 +1017,7 @@
     <t>A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=PRF].functionCode</t>
@@ -1220,7 +1063,7 @@
     <t>MedicationDispense.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1230,7 +1073,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1351,7 +1194,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1)
 </t>
   </si>
   <si>
@@ -1392,7 +1235,7 @@
     <t>MedicationDispense.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1446,7 +1289,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1471,10 +1314,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction:additionalEntry</t>
@@ -1631,7 +1470,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1648,7 +1487,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1661,7 +1500,7 @@
     <t>MedicationDispense.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1975,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO90"/>
+  <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1984,45 +1823,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="130.8515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="112.1796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.83984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4729,7 +4568,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4741,13 +4580,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4798,25 +4637,25 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4830,42 +4669,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4873,7 +4712,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>79</v>
@@ -4891,55 +4730,55 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4947,10 +4786,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4967,26 +4806,22 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5010,13 +4845,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -5034,7 +4869,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5049,10 +4884,10 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5061,15 +4896,15 @@
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5089,23 +4924,21 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5129,31 +4962,31 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Z27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5171,7 +5004,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5180,15 +5013,15 @@
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5211,32 +5044,30 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5260,22 +5091,20 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5287,35 +5116,37 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5330,16 +5161,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5353,7 +5184,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5389,10 +5220,10 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5404,27 +5235,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5447,15 +5278,17 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5504,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5519,27 +5352,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5559,20 +5392,18 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5621,7 +5452,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5633,13 +5464,13 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5648,19 +5479,19 @@
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5679,15 +5510,17 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5724,19 +5557,19 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5748,13 +5581,13 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5768,10 +5601,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5788,22 +5621,22 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5811,7 +5644,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -5829,13 +5662,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5853,31 +5686,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5885,10 +5718,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5908,18 +5741,20 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5944,13 +5779,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5968,7 +5803,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5983,10 +5818,10 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6000,10 +5835,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6023,19 +5858,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6061,13 +5896,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6085,7 +5920,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6103,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6117,10 +5952,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6128,7 +5963,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6143,16 +5978,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6190,20 +6025,22 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -6215,31 +6052,29 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6257,20 +6092,18 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6319,10 +6152,10 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>89</v>
@@ -6334,27 +6167,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6365,7 +6198,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6374,20 +6207,18 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6436,13 +6267,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6451,27 +6282,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6479,7 +6310,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6494,13 +6325,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>105</v>
+        <v>306</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6551,25 +6382,25 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6583,21 +6414,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6609,17 +6440,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6656,31 +6485,31 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6700,21 +6529,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6723,19 +6552,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6785,25 +6614,25 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>115</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6817,10 +6646,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6831,28 +6660,28 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6878,13 +6707,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6902,25 +6731,25 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6934,10 +6763,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6957,21 +6786,21 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6995,13 +6824,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7019,7 +6848,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7037,7 +6866,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7051,10 +6880,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7062,7 +6891,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -7074,20 +6903,18 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7136,10 +6963,10 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
@@ -7151,10 +6978,10 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>176</v>
+        <v>325</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7168,10 +6995,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7194,13 +7021,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7251,7 +7078,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7263,13 +7090,13 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7283,14 +7110,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7309,15 +7136,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7354,19 +7183,19 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7378,16 +7207,16 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7398,10 +7227,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7421,18 +7250,20 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7481,25 +7312,25 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7513,10 +7344,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7536,18 +7367,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7572,13 +7405,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7596,7 +7429,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7608,13 +7441,13 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7628,21 +7461,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7651,19 +7484,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7713,25 +7546,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7745,10 +7578,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7759,28 +7592,28 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7830,25 +7663,25 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7862,10 +7695,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7888,18 +7721,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7923,13 +7754,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7947,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7965,7 +7796,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7979,10 +7810,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7990,10 +7821,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8005,15 +7836,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8062,13 +7895,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8077,27 +7910,27 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8120,13 +7953,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8153,13 +7986,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8177,7 +8010,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8189,41 +8022,41 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8235,17 +8068,15 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>109</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>213</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8282,54 +8113,54 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>107</v>
+        <v>352</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8337,7 +8168,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8349,20 +8180,18 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8411,7 +8240,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8420,7 +8249,7 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>101</v>
@@ -8429,7 +8258,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>176</v>
+        <v>357</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8438,15 +8267,15 @@
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8469,17 +8298,15 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>125</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8504,13 +8331,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8528,7 +8355,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8546,24 +8373,24 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8571,7 +8398,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8583,20 +8410,18 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8645,7 +8470,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8660,27 +8485,27 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8700,20 +8525,18 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8762,7 +8585,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8780,24 +8603,24 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8808,7 +8631,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8820,7 +8643,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>110</v>
@@ -8877,13 +8700,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8895,13 +8718,13 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -8909,10 +8732,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8935,17 +8758,15 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8994,7 +8815,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9009,27 +8830,27 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9052,7 +8873,7 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>110</v>
@@ -9085,13 +8906,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9109,7 +8930,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9121,30 +8942,30 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9152,10 +8973,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9167,13 +8988,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9212,54 +9033,54 @@
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9279,18 +9100,20 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9339,7 +9162,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9357,7 +9180,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9366,15 +9189,15 @@
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>410</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9397,7 +9220,7 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>110</v>
@@ -9454,7 +9277,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9472,24 +9295,24 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>415</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9509,16 +9332,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9569,10 +9392,10 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -9584,27 +9407,27 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>415</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9612,10 +9435,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9627,15 +9450,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9672,25 +9497,23 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -9702,35 +9525,37 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9742,15 +9567,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>110</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9799,7 +9626,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9817,13 +9644,13 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -9831,12 +9658,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9857,15 +9686,17 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -9914,7 +9745,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9929,10 +9760,10 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9941,15 +9772,15 @@
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9972,13 +9803,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10029,7 +9860,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10041,19 +9872,19 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10061,10 +9892,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10075,7 +9906,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10087,13 +9918,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10132,37 +9963,37 @@
         <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10176,21 +10007,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10199,19 +10030,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>439</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>440</v>
+        <v>267</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>441</v>
+        <v>269</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10261,25 +10092,25 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>442</v>
+        <v>115</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>443</v>
+        <v>107</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10288,15 +10119,15 @@
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10307,27 +10138,29 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>412</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10376,25 +10209,25 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10403,15 +10236,15 @@
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10431,16 +10264,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10491,7 +10324,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>89</v>
@@ -10509,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10518,15 +10351,15 @@
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10534,10 +10367,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10549,17 +10382,15 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>234</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10584,35 +10415,35 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AC74" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -10624,34 +10455,32 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10666,17 +10495,15 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>104</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -10725,25 +10552,25 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>453</v>
+        <v>106</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10757,16 +10584,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10785,16 +10610,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>468</v>
+        <v>267</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>268</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>457</v>
+        <v>269</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10832,19 +10657,19 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10856,13 +10681,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -10876,10 +10701,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10890,7 +10715,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10899,19 +10724,23 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>356</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10920,7 +10749,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -10959,42 +10788,42 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>472</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11014,19 +10843,23 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11074,7 +10907,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11086,13 +10919,13 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>107</v>
+        <v>453</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11101,19 +10934,19 @@
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11132,17 +10965,15 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11167,13 +10998,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11191,7 +11022,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>115</v>
+        <v>455</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11203,19 +11034,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>458</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11223,10 +11054,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11237,29 +11068,27 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>109</v>
+        <v>461</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11308,7 +11137,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11320,19 +11149,19 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11340,21 +11169,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11366,15 +11195,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11423,13 +11254,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -11441,7 +11272,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11455,10 +11286,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11469,7 +11300,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11481,15 +11312,17 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>484</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11514,11 +11347,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -11536,13 +11371,13 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -11554,949 +11389,15 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO90" t="s" s="2">
         <v>79</v>
       </c>
     </row>
